--- a/biology/Zoologie/Calydna_venusta/Calydna_venusta.xlsx
+++ b/biology/Zoologie/Calydna_venusta/Calydna_venusta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calydna venusta est une espèce d'insectes lépidoptères de la famille des Riodinidae et du genre Calydna.
 </t>
@@ -511,14 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calydna venusta a été décrit par Frederick DuCane Godman et Osbert Salvin en 1886] sous le nom de Calydna venusta[1].
-Sous-espèces
-Calydna venusta venusta ; présent au Mexique et au Panama.
-Calydna venusta morio Stichel, 1929 ; présent au Panama, en Colombie, au Venezuela, à Trinité-et-Tobago, en Guyane, au Guyana, au Surinam et au Brésil[1].
-Nom vernaculaire
-Calydna venusta se nomme Venusta Metalmark en anglais.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calydna venusta a été décrit par Frederick DuCane Godman et Osbert Salvin en 1886] sous le nom de Calydna venusta.
 </t>
         </is>
       </c>
@@ -544,10 +553,86 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Calydna venusta venusta ; présent au Mexique et au Panama.
+Calydna venusta morio Stichel, 1929 ; présent au Panama, en Colombie, au Venezuela, à Trinité-et-Tobago, en Guyane, au Guyana, au Surinam et au Brésil.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Calydna_venusta</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calydna_venusta</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calydna venusta se nomme Venusta Metalmark en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Calydna_venusta</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calydna_venusta</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Calydna venusta est un papillon de divers tons de beige rosé nacré au cuivré avec sur un fond plus clair des bandes plus foncées formées de taches confluentes.
 Calydna venusta morio est gris foncé plus ou moins largement taché de noir jusqu'à être noir avec uniquement une bande marginale grise ou bleue aux postérieures.
@@ -555,69 +640,146 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Calydna_venusta</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Calydna_venusta</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Calydna_venusta</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calydna_venusta</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-La plante hôte de sa chenille est Ximenia americana (Cock et Hall, 2004)[1].
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante hôte de sa chenille est Ximenia americana (Cock et Hall, 2004).
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Calydna_venusta</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Calydna_venusta</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Calydna_venusta</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calydna_venusta</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calydna venusta est présent au Mexique, au Panama, en Colombie, au Venezuela, à Trinité-et-Tobago, en Guyane, au Guyana, au Surinam et au Brésil[1].
-Biotope
-Il réside dans la forêt tropicale.
-Protection
-Pas de statut de protection particulier.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calydna venusta est présent au Mexique, au Panama, en Colombie, au Venezuela, à Trinité-et-Tobago, en Guyane, au Guyana, au Surinam et au Brésil.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Calydna_venusta</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calydna_venusta</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt tropicale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Calydna_venusta</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calydna_venusta</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
